--- a/data/trans_orig/iP31A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A93010-7E9F-4333-B528-F5D362C28E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FA8D25-07DA-450F-9611-71D9A4A5FA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3AA9868A-BD9C-4303-B79E-2D642A135270}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{20615BB0-6209-4760-BF16-C41105066419}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>70,25%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>74,16%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>29,75%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>34,04%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -203,9 +317,6 @@
     <t>63,2%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
     <t>69,19%</t>
   </si>
   <si>
@@ -233,9 +344,6 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
     <t>34,79%</t>
   </si>
   <si>
@@ -243,114 +351,6 @@
   </si>
   <si>
     <t>39,48%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
   </si>
   <si>
     <t>63,92%</t>
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5FD17B-F25B-45EA-B4F0-475CF4C5B56D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB76621-168C-425D-873C-2D5304434764}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>170638</v>
+        <v>4564</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,10 +929,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>132720</v>
+        <v>5811</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -944,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>417</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>303358</v>
+        <v>10374</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>72275</v>
+        <v>6833</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -980,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>55197</v>
+        <v>10188</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>127472</v>
+        <v>17021</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1016,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1031,10 +1031,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1046,10 +1046,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="D10" s="7">
-        <v>115195</v>
+        <v>170638</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1239,10 +1239,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="I10" s="7">
-        <v>106480</v>
+        <v>132720</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1254,10 +1254,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="N10" s="7">
-        <v>221677</v>
+        <v>303358</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1275,10 +1275,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>56261</v>
+        <v>72275</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1290,10 +1290,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I11" s="7">
-        <v>62010</v>
+        <v>55197</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1305,10 +1305,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="N11" s="7">
-        <v>118270</v>
+        <v>127472</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1326,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1341,10 +1341,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1356,10 +1356,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1379,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7">
-        <v>4564</v>
+        <v>87638</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1394,10 +1394,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="I13" s="7">
-        <v>5811</v>
+        <v>84183</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1409,10 +1409,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="N13" s="7">
-        <v>10374</v>
+        <v>171821</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1430,10 +1430,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>6833</v>
+        <v>82575</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1445,10 +1445,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7">
-        <v>10188</v>
+        <v>82385</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1460,10 +1460,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="N14" s="7">
-        <v>17021</v>
+        <v>164960</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>170213</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1496,10 +1496,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1511,10 +1511,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>442</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>336781</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="D16" s="7">
-        <v>87638</v>
+        <v>115195</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1549,34 +1549,34 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="I16" s="7">
-        <v>84183</v>
+        <v>106480</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>302</v>
+      </c>
+      <c r="N16" s="7">
+        <v>221677</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>229</v>
-      </c>
-      <c r="N16" s="7">
-        <v>171821</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D17" s="7">
-        <v>82575</v>
+        <v>56261</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1600,10 +1600,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>82385</v>
+        <v>62010</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1612,19 +1612,19 @@
         <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="7">
+        <v>165</v>
+      </c>
+      <c r="N17" s="7">
+        <v>118270</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="7">
-        <v>213</v>
-      </c>
-      <c r="N17" s="7">
-        <v>164960</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>
@@ -1636,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>170213</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1651,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1666,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>336781</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP31A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FA8D25-07DA-450F-9611-71D9A4A5FA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB9D5BAA-5E0D-4DB5-B9CD-71E204C20213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{20615BB0-6209-4760-BF16-C41105066419}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{798FEE93-CBA3-47EA-AF16-B677B662FA24}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Menores según si tienen una baja adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 96,56%)</t>
   </si>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,313 +128,292 @@
     <t>54,16%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>50,54%</t>
   </si>
   <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
   </si>
   <si>
     <t>51,02%</t>
   </si>
   <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>63,2%</t>
   </si>
   <si>
-    <t>69,19%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>63,92%</t>
   </si>
   <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>63,37%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -511,39 +520,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -595,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -706,13 +715,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -721,6 +723,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -785,19 +794,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB76621-168C-425D-873C-2D5304434764}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255BCE62-DA7C-419C-8599-17F1814E3FDF}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -914,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>4564</v>
+        <v>6833</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>5811</v>
+        <v>10188</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -944,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>10374</v>
+        <v>17021</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -965,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>6833</v>
+        <v>4564</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -980,10 +1009,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>10188</v>
+        <v>5811</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -995,10 +1024,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>17021</v>
+        <v>10374</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1069,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>74812</v>
+        <v>37636</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1084,10 +1113,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>72808</v>
+        <v>28827</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1099,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="N7" s="7">
-        <v>147620</v>
+        <v>66463</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1120,10 +1149,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7">
-        <v>37636</v>
+        <v>74812</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1135,10 +1164,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="I8" s="7">
-        <v>28827</v>
+        <v>72808</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1150,10 +1179,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="N8" s="7">
-        <v>66463</v>
+        <v>147620</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1224,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7">
-        <v>170638</v>
+        <v>72275</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1239,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>132720</v>
+        <v>55197</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1254,10 +1283,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>417</v>
+        <v>176</v>
       </c>
       <c r="N10" s="7">
-        <v>303358</v>
+        <v>127472</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1275,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>72275</v>
+        <v>170638</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1290,10 +1319,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="I11" s="7">
-        <v>55197</v>
+        <v>132720</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1305,10 +1334,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="N11" s="7">
-        <v>127472</v>
+        <v>303358</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1379,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="7">
-        <v>87638</v>
+        <v>82575</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1394,10 +1423,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I13" s="7">
-        <v>84183</v>
+        <v>82385</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1409,10 +1438,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="N13" s="7">
-        <v>171821</v>
+        <v>164960</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1430,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="7">
-        <v>82575</v>
+        <v>87638</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1445,10 +1474,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>82385</v>
+        <v>84183</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1460,10 +1489,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="N14" s="7">
-        <v>164960</v>
+        <v>171821</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1534,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>115195</v>
+        <v>56261</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1549,34 +1578,34 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>106480</v>
+        <v>62010</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>302</v>
+        <v>165</v>
       </c>
       <c r="N16" s="7">
-        <v>221677</v>
+        <v>118270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,49 +1614,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D17" s="7">
-        <v>56261</v>
+        <v>115195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="I17" s="7">
-        <v>62010</v>
+        <v>106480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>165</v>
+        <v>302</v>
       </c>
       <c r="N17" s="7">
-        <v>118270</v>
+        <v>221677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,49 +1718,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>607</v>
+        <v>332</v>
       </c>
       <c r="D19" s="7">
-        <v>452848</v>
+        <v>255579</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>580</v>
+        <v>335</v>
       </c>
       <c r="I19" s="7">
-        <v>402002</v>
+        <v>238607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1187</v>
+        <v>667</v>
       </c>
       <c r="N19" s="7">
-        <v>854850</v>
+        <v>494186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,49 +1769,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>332</v>
+        <v>607</v>
       </c>
       <c r="D20" s="7">
-        <v>255579</v>
+        <v>452848</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>335</v>
+        <v>580</v>
       </c>
       <c r="I20" s="7">
-        <v>238607</v>
+        <v>402002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>667</v>
+        <v>1187</v>
       </c>
       <c r="N20" s="7">
-        <v>494186</v>
+        <v>854850</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,6 +1863,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP31A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB9D5BAA-5E0D-4DB5-B9CD-71E204C20213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{001E1A40-FADC-4199-AB3F-FFE5A8895FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{798FEE93-CBA3-47EA-AF16-B677B662FA24}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07B3F90F-73A7-417C-B080-427EBBDAE7C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Menores según si tienen una baja adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 96,56%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>59,95%</t>
   </si>
   <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>63,68%</t>
   </si>
   <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>62,13%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,100 +104,100 @@
     <t>40,05%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>36,32%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>29,37%</t>
@@ -206,31 +206,31 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>35,38%</t>
+    <t>35,47%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>64,62%</t>
+    <t>64,53%</t>
   </si>
   <si>
     <t>75,81%</t>
@@ -239,67 +239,67 @@
     <t>70,41%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>48,51%</t>
   </si>
   <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>48,98%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
   </si>
   <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
   </si>
   <si>
     <t>50,54%</t>
   </si>
   <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>51,02%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>32,81%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>30,68%</t>
   </si>
   <si>
     <t>34,79%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>63,2%</t>
   </si>
   <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>69,32%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
   </si>
   <si>
     <t>36,08%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>63,92%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
   </si>
   <si>
     <t>63,37%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255BCE62-DA7C-419C-8599-17F1814E3FDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5EBD79-E01D-4C84-94BD-586C58041787}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1590,7 +1584,7 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -1599,13 +1593,13 @@
         <v>118270</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1614,13 @@
         <v>115195</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -1635,13 +1629,13 @@
         <v>106480</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>302</v>
@@ -1650,13 +1644,13 @@
         <v>221677</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>255579</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>335</v>
@@ -1739,13 +1733,13 @@
         <v>238607</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>667</v>
@@ -1754,13 +1748,13 @@
         <v>494186</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>452848</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>580</v>
@@ -1790,13 +1784,13 @@
         <v>402002</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1187</v>
@@ -1805,13 +1799,13 @@
         <v>854850</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP31A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{001E1A40-FADC-4199-AB3F-FFE5A8895FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB1EFB2-E484-42D6-BBBD-2670ED2CE769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07B3F90F-73A7-417C-B080-427EBBDAE7C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{676B9CAF-8457-48F4-BEA0-97A8EA67F4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si tienen una baja adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 96,56%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5EBD79-E01D-4C84-94BD-586C58041787}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6606831C-423C-4ABC-8437-B14338A640FD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>6833</v>
+        <v>38246</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>10188</v>
+        <v>55518</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="N4" s="7">
-        <v>17021</v>
+        <v>93765</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7">
-        <v>4564</v>
+        <v>76005</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="I5" s="7">
-        <v>5811</v>
+        <v>81297</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="N5" s="7">
-        <v>10374</v>
+        <v>157301</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7">
-        <v>37636</v>
+        <v>59257</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="I7" s="7">
-        <v>28827</v>
+        <v>77764</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="N7" s="7">
-        <v>66463</v>
+        <v>137020</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="D8" s="7">
-        <v>74812</v>
+        <v>126857</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="I8" s="7">
-        <v>72808</v>
+        <v>169756</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="N8" s="7">
-        <v>147620</v>
+        <v>296614</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>72275</v>
+        <v>102781</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="I10" s="7">
-        <v>55197</v>
+        <v>89754</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="N10" s="7">
-        <v>127472</v>
+        <v>192535</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
-        <v>170638</v>
+        <v>85468</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="I11" s="7">
-        <v>132720</v>
+        <v>92412</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>417</v>
+        <v>229</v>
       </c>
       <c r="N11" s="7">
-        <v>303358</v>
+        <v>177881</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>182166</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>442</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>370416</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>82575</v>
+        <v>61787</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="I13" s="7">
-        <v>82385</v>
+        <v>59537</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="N13" s="7">
-        <v>164960</v>
+        <v>121325</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D14" s="7">
-        <v>87638</v>
+        <v>102732</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="I14" s="7">
-        <v>84183</v>
+        <v>117772</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="N14" s="7">
-        <v>171821</v>
+        <v>220503</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>170213</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>336781</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,46 +1500,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="D16" s="7">
-        <v>56261</v>
+        <v>262072</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>332</v>
+      </c>
+      <c r="I16" s="7">
+        <v>282573</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62010</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="M16" s="7">
-        <v>165</v>
+        <v>667</v>
       </c>
       <c r="N16" s="7">
-        <v>118270</v>
+        <v>544644</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1608,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>156</v>
+        <v>580</v>
       </c>
       <c r="D17" s="7">
-        <v>115195</v>
+        <v>391062</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1623,34 +1572,34 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>146</v>
+        <v>607</v>
       </c>
       <c r="I17" s="7">
-        <v>106480</v>
+        <v>461238</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>302</v>
+        <v>1187</v>
       </c>
       <c r="N17" s="7">
-        <v>221677</v>
+        <v>852300</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>939</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>743811</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1854</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1396944</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>332</v>
-      </c>
-      <c r="D19" s="7">
-        <v>255579</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>335</v>
-      </c>
-      <c r="I19" s="7">
-        <v>238607</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>667</v>
-      </c>
-      <c r="N19" s="7">
-        <v>494186</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>607</v>
-      </c>
-      <c r="D20" s="7">
-        <v>452848</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>580</v>
-      </c>
-      <c r="I20" s="7">
-        <v>402002</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1187</v>
-      </c>
-      <c r="N20" s="7">
-        <v>854850</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>939</v>
-      </c>
-      <c r="D21" s="7">
-        <v>708427</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1854</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349036</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
